--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73910.73630862638</v>
+        <v>71211.68421471922</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663198</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663198</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>133.833359060644</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>153.807238032413</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>131.210813598592</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>136.6676613092104</v>
       </c>
     </row>
     <row r="4">
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>16.4084069793177</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>111.3057760856329</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>174.5743486644321</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +911,10 @@
         <v>412.1217610028605</v>
       </c>
       <c r="H5" t="n">
-        <v>262.4156412453741</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>87.8412925809406</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.1954604309847</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>73.91650298379153</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,10 +990,10 @@
         <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.79797317841047</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>30.79801895224388</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.0697787646035</v>
       </c>
       <c r="T6" t="n">
-        <v>193.3045852332498</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8294102072821</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.53031183210631</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5641028040799</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>199.15003117566</v>
+        <v>153.0973056202597</v>
       </c>
       <c r="T7" t="n">
         <v>221.8489350595717</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>286.5888679426066</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>213.2066220932631</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>125.3373059116987</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>143.7901960092676</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393747</v>
+        <v>35.16722044262524</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184546</v>
+        <v>24.14662204184572</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.605422924748004</v>
+        <v>98.88510599615221</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544491</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530785</v>
+        <v>10.48847705530797</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>66.70361647296954</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>73.29920437558089</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722587</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560544</v>
+        <v>386.2379386560579</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>220.9987113889036</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.8396132741344</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>19.91555826188622</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>76.17049831699856</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474256</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>119.3168020713737</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>185.2536037687264</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000783</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0.825382616191618</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560554</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>89.79511523533272</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>27.02919805176171</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428222</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670957</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881301</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>27.02919805176171</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.295034370327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>1.799772605716393</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.2614020227596</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="C2" t="n">
-        <v>393.8416170062749</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8416170062749</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062749</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>217.6519665656067</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201465</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201465</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201465</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201465</v>
+        <v>603.43703734778</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201465</v>
+        <v>414.0172523312951</v>
       </c>
       <c r="W2" t="n">
-        <v>738.6222485201465</v>
+        <v>414.0172523312951</v>
       </c>
       <c r="X2" t="n">
-        <v>583.2614020227596</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="Y2" t="n">
-        <v>583.2614020227596</v>
+        <v>224.5974673148102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238.7266032801968</v>
+        <v>422.6344209122192</v>
       </c>
       <c r="C3" t="n">
-        <v>64.27357399906981</v>
+        <v>422.6344209122192</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>422.6344209122192</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>263.3969659067637</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487946</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487946</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V3" t="n">
-        <v>371.26277863231</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="X3" t="n">
-        <v>238.7266032801968</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.7266032801968</v>
+        <v>422.6344209122192</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>444.8756361139676</v>
+        <v>161.891994471216</v>
       </c>
       <c r="C4" t="n">
-        <v>444.8756361139676</v>
+        <v>161.891994471216</v>
       </c>
       <c r="D4" t="n">
-        <v>444.8756361139676</v>
+        <v>161.891994471216</v>
       </c>
       <c r="E4" t="n">
-        <v>296.9625425315745</v>
+        <v>161.891994471216</v>
       </c>
       <c r="F4" t="n">
-        <v>296.9625425315745</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>296.9625425315745</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884406</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830972</v>
+        <v>285.9838492295954</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777538</v>
+        <v>471.6341805242523</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143038</v>
+        <v>634.3723839608025</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846269</v>
+        <v>746.725497984628</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846269</v>
+        <v>730.1513495206707</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846269</v>
+        <v>540.7315645041858</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846269</v>
+        <v>351.3117794877008</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681423</v>
+        <v>351.3117794877008</v>
       </c>
       <c r="V4" t="n">
-        <v>557.3057129681423</v>
+        <v>351.3117794877008</v>
       </c>
       <c r="W4" t="n">
-        <v>557.3057129681423</v>
+        <v>351.3117794877008</v>
       </c>
       <c r="X4" t="n">
-        <v>444.8756361139676</v>
+        <v>161.891994471216</v>
       </c>
       <c r="Y4" t="n">
-        <v>444.8756361139676</v>
+        <v>161.891994471216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1488.16867489564</v>
+        <v>1488.168674895639</v>
       </c>
       <c r="C5" t="n">
-        <v>1488.16867489564</v>
+        <v>1311.83094897197</v>
       </c>
       <c r="D5" t="n">
-        <v>1129.90297628889</v>
+        <v>953.5652503652195</v>
       </c>
       <c r="E5" t="n">
-        <v>1129.90297628889</v>
+        <v>953.5652503652195</v>
       </c>
       <c r="F5" t="n">
-        <v>718.9170714992822</v>
+        <v>542.5793455756119</v>
       </c>
       <c r="G5" t="n">
-        <v>302.6324644256857</v>
+        <v>126.2947385020155</v>
       </c>
       <c r="H5" t="n">
-        <v>37.56616013742904</v>
+        <v>126.2947385020155</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742904</v>
+        <v>37.56616013742901</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620865</v>
+        <v>125.6123058620867</v>
       </c>
       <c r="K5" t="n">
-        <v>308.3091729405701</v>
+        <v>308.3091729405696</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714444</v>
+        <v>571.8625535714436</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672668</v>
+        <v>896.7859082672658</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.58067091781</v>
+        <v>1231.580670917808</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.382610379517</v>
+        <v>1534.382610379515</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.316059280666</v>
+        <v>1758.316059280664</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871452</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871452</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="S5" t="n">
-        <v>1878.308006871452</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="T5" t="n">
-        <v>1878.308006871452</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="U5" t="n">
-        <v>1878.308006871452</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="V5" t="n">
-        <v>1878.308006871452</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.308006871452</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.308006871452</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.16867489564</v>
+        <v>1488.168674895639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>803.7372733544202</v>
+        <v>831.8221179262687</v>
       </c>
       <c r="C6" t="n">
-        <v>629.2842440732932</v>
+        <v>757.1589835992065</v>
       </c>
       <c r="D6" t="n">
-        <v>480.3498344120418</v>
+        <v>608.2245739379553</v>
       </c>
       <c r="E6" t="n">
-        <v>321.1123794065863</v>
+        <v>448.9871189324998</v>
       </c>
       <c r="F6" t="n">
-        <v>174.5778214334713</v>
+        <v>302.4525609593848</v>
       </c>
       <c r="G6" t="n">
-        <v>37.56616013742904</v>
+        <v>165.4408996633425</v>
       </c>
       <c r="H6" t="n">
-        <v>37.56616013742904</v>
+        <v>68.67527019020061</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742904</v>
+        <v>37.56616013742901</v>
       </c>
       <c r="J6" t="n">
-        <v>180.8159756653407</v>
+        <v>71.18799439755971</v>
       </c>
       <c r="K6" t="n">
-        <v>316.435870347799</v>
+        <v>321.8944882402611</v>
       </c>
       <c r="L6" t="n">
-        <v>545.1160964380402</v>
+        <v>550.5747143305023</v>
       </c>
       <c r="M6" t="n">
-        <v>831.3320023081808</v>
+        <v>836.7906202006427</v>
       </c>
       <c r="N6" t="n">
-        <v>1139.531836460443</v>
+        <v>1144.990454352905</v>
       </c>
       <c r="O6" t="n">
-        <v>1399.254677786106</v>
+        <v>1404.713295678568</v>
       </c>
       <c r="P6" t="n">
-        <v>1588.372089276836</v>
+        <v>1593.830707169298</v>
       </c>
       <c r="Q6" t="n">
-        <v>1872.849388978989</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871452</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="S6" t="n">
-        <v>1878.308006871452</v>
+        <v>1736.8233818567</v>
       </c>
       <c r="T6" t="n">
-        <v>1683.050850070189</v>
+        <v>1736.8233818567</v>
       </c>
       <c r="U6" t="n">
-        <v>1454.940334709298</v>
+        <v>1736.8233818567</v>
       </c>
       <c r="V6" t="n">
-        <v>1219.788226477556</v>
+        <v>1501.671273624957</v>
       </c>
       <c r="W6" t="n">
-        <v>965.5508697493542</v>
+        <v>1247.433916896755</v>
       </c>
       <c r="X6" t="n">
-        <v>965.5508697493542</v>
+        <v>1039.582416691223</v>
       </c>
       <c r="Y6" t="n">
-        <v>965.5508697493542</v>
+        <v>831.8221179262687</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.7324091190378</v>
+        <v>37.56616013742901</v>
       </c>
       <c r="C7" t="n">
-        <v>650.7324091190378</v>
+        <v>37.56616013742901</v>
       </c>
       <c r="D7" t="n">
-        <v>500.6157697067021</v>
+        <v>37.56616013742901</v>
       </c>
       <c r="E7" t="n">
-        <v>352.7026761243089</v>
+        <v>37.56616013742901</v>
       </c>
       <c r="F7" t="n">
-        <v>205.8127286263986</v>
+        <v>37.56616013742901</v>
       </c>
       <c r="G7" t="n">
-        <v>37.56616013742904</v>
+        <v>37.56616013742901</v>
       </c>
       <c r="H7" t="n">
-        <v>37.56616013742904</v>
+        <v>37.56616013742901</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742904</v>
+        <v>37.56616013742901</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256532</v>
+        <v>45.01194249256527</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696023</v>
+        <v>187.0844868696022</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101281</v>
+        <v>424.4148644101279</v>
       </c>
       <c r="M7" t="n">
-        <v>685.0355944467485</v>
+        <v>685.0355944467483</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609252</v>
+        <v>944.8939624609249</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103173</v>
+        <v>1168.898929103172</v>
       </c>
       <c r="P7" t="n">
         <v>1337.053193890529</v>
@@ -4750,25 +4750,25 @@
         <v>1370.039410552808</v>
       </c>
       <c r="S7" t="n">
-        <v>1168.877762900627</v>
+        <v>1215.39566750204</v>
       </c>
       <c r="T7" t="n">
-        <v>944.7879295071198</v>
+        <v>991.3058341085335</v>
       </c>
       <c r="U7" t="n">
-        <v>944.7879295071198</v>
+        <v>991.3058341085335</v>
       </c>
       <c r="V7" t="n">
-        <v>944.7879295071198</v>
+        <v>736.6213459026467</v>
       </c>
       <c r="W7" t="n">
-        <v>944.7879295071198</v>
+        <v>447.2041758656861</v>
       </c>
       <c r="X7" t="n">
-        <v>944.7879295071198</v>
+        <v>219.2146249676687</v>
       </c>
       <c r="Y7" t="n">
-        <v>723.9953503635896</v>
+        <v>219.2146249676687</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
         <v>62.91113280331017</v>
@@ -4802,16 +4802,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4838,16 +4838,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2346.979104063526</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2346.979104063526</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.513345802446</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080695</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.6531669530527</v>
+        <v>597.1475965504967</v>
       </c>
       <c r="C10" t="n">
-        <v>472.6531669530527</v>
+        <v>597.1475965504967</v>
       </c>
       <c r="D10" t="n">
-        <v>472.6531669530527</v>
+        <v>597.1475965504967</v>
       </c>
       <c r="E10" t="n">
-        <v>324.7400733706596</v>
+        <v>449.2345029681036</v>
       </c>
       <c r="F10" t="n">
-        <v>177.8501258727493</v>
+        <v>302.3445554701932</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>302.3445554701932</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4987,25 +4987,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>990.0598878880306</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W10" t="n">
-        <v>700.6427178510701</v>
+        <v>825.137147448514</v>
       </c>
       <c r="X10" t="n">
-        <v>472.6531669530527</v>
+        <v>597.1475965504967</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.6531669530527</v>
+        <v>597.1475965504967</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1578.7021302158</v>
+        <v>2076.068775616325</v>
       </c>
       <c r="C11" t="n">
-        <v>1578.7021302158</v>
+        <v>1707.106258675914</v>
       </c>
       <c r="D11" t="n">
-        <v>1220.43643160905</v>
+        <v>1348.840560069163</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>963.0523074709188</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194421</v>
+        <v>552.0664026813113</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605876</v>
+        <v>137.450638122457</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706881</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656944</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625327</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087828</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484039</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535292</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479997</v>
+        <v>3493.127967479991</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464063</v>
+        <v>3789.749829464057</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796039</v>
+        <v>3876.883295796032</v>
       </c>
       <c r="S11" t="n">
-        <v>3870.211151427607</v>
+        <v>3776.999350345373</v>
       </c>
       <c r="T11" t="n">
-        <v>3666.232545008972</v>
+        <v>3776.999350345373</v>
       </c>
       <c r="U11" t="n">
-        <v>3412.7386031305</v>
+        <v>3523.505408466902</v>
       </c>
       <c r="V11" t="n">
-        <v>3081.675715786929</v>
+        <v>3192.442521123331</v>
       </c>
       <c r="W11" t="n">
-        <v>2728.907060516814</v>
+        <v>2839.673865853217</v>
       </c>
       <c r="X11" t="n">
-        <v>2355.441302255735</v>
+        <v>2466.208107592137</v>
       </c>
       <c r="Y11" t="n">
-        <v>1965.301970279922</v>
+        <v>2076.068775616325</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870415</v>
+        <v>193.841091987041</v>
       </c>
       <c r="K12" t="n">
-        <v>470.776996404666</v>
+        <v>470.7769964046649</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626179</v>
+        <v>889.4740370626159</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019146</v>
+        <v>1397.430603019144</v>
       </c>
       <c r="N12" t="n">
-        <v>1903.225240695506</v>
+        <v>1546.994364450734</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.16628502803</v>
+        <v>2014.935408783257</v>
       </c>
       <c r="P12" t="n">
         <v>2371.16628502803</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.7285734756417</v>
+        <v>372.3407069962242</v>
       </c>
       <c r="C13" t="n">
-        <v>834.3511830989049</v>
+        <v>372.3407069962242</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865692</v>
+        <v>372.3407069962241</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041761</v>
+        <v>224.427613413831</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592078</v>
+        <v>77.53766591592064</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758646</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648147</v>
+        <v>364.169024664814</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344813</v>
+        <v>710.5788654344802</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376938</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336946</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818663</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.94034901072</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742806</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2063.323368363432</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742808</v>
+        <v>1875.207520896728</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.362968742808</v>
+        <v>1654.316188331168</v>
       </c>
       <c r="U13" t="n">
-        <v>1848.271275692259</v>
+        <v>1365.224495280619</v>
       </c>
       <c r="V13" t="n">
-        <v>1593.586787486372</v>
+        <v>1110.540007074732</v>
       </c>
       <c r="W13" t="n">
-        <v>1304.169617449412</v>
+        <v>821.1228370377717</v>
       </c>
       <c r="X13" t="n">
-        <v>1304.169617449412</v>
+        <v>593.1332861397543</v>
       </c>
       <c r="Y13" t="n">
-        <v>1083.377038305881</v>
+        <v>372.3407069962242</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,25 +5267,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,10 +5294,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5321,7 +5321,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615993</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>726.9555321712447</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>558.0193492433378</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>407.9027098310021</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5440,13 +5440,13 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279803</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1465.154832249753</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704553</v>
+        <v>1175.737662212792</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806536</v>
+        <v>947.7481113147749</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508441</v>
+        <v>726.9555321712447</v>
       </c>
     </row>
     <row r="17">
@@ -5510,19 +5510,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,10 +5531,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876645</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597576</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474218</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797189</v>
@@ -5671,10 +5671,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.10824923516</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258101</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602299</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396412</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359451</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614341</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179042</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038344</v>
@@ -5920,7 +5920,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
         <v>2035.089393279803</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970975</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934014</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035997</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -6072,22 +6072,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D25" t="n">
-        <v>408.9258559154851</v>
+        <v>779.6143379232839</v>
       </c>
       <c r="E25" t="n">
-        <v>261.012762333092</v>
+        <v>631.7012443408908</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038344</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2009.937693195925</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1720.862466540123</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1466.177978334236</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1176.760808297275</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>948.7712573992578</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>727.9786782557277</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400718</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.27452942083</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443771</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138418</v>
+        <v>982.5066286471042</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703115</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>870.3164745246298</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="32">
@@ -6692,49 +6692,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6847,16 +6847,16 @@
         <v>344.9174178121649</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
         <v>435.7419440038343</v>
@@ -6898,7 +6898,7 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y34" t="n">
         <v>695.5020655703115</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6932,28 +6932,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6968,7 +6968,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797189</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,13 +7117,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
         <v>1688.385853854706</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,34 +7190,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121647</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121647</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121647</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121647</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,31 +7351,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138414</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400718</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270448</v>
+        <v>177.7213185270446</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797191</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138416</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703115</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7728,16 +7728,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429796</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429796</v>
+        <v>344.917417812165</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429796</v>
+        <v>344.917417812165</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429796</v>
+        <v>344.917417812165</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578596</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
         <v>2035.089393279802</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>82.97369176944369</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777612</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.7685219749647</v>
+        <v>15.76852197496476</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>110.7353346139201</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>116.2490900608517</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>40.00791436438845</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>193.3273467878348</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.4490126143853</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>254.8102828967496</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.27968307140407</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>100.5432046256583</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927372</v>
+        <v>90.2535238992738</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905234</v>
+        <v>6.514102423471584</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920368</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.933564423536994e-12</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>31.13893193492436</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>25.74504007796037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>125.505489761045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462198</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>142.4141550350962</v>
       </c>
     </row>
     <row r="20">
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>114.1584408891654</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.26785128072112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>32.15184655856189</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.54986409393004</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>77.45170586329512</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405071</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194164</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664506</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194186</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>138.4949402405075</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.494940240507</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194163</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>983489.5719288338</v>
+        <v>983489.5719288334</v>
       </c>
     </row>
     <row r="6">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348942.7521923205</v>
+      </c>
+      <c r="C2" t="n">
         <v>348942.7521923204</v>
       </c>
-      <c r="C2" t="n">
-        <v>348942.7521923206</v>
-      </c>
       <c r="D2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
-        <v>311350.4288166186</v>
+        <v>311350.4288166182</v>
       </c>
       <c r="F2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="G2" t="n">
         <v>343037.3048682528</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="I2" t="n">
         <v>343037.3048682527</v>
-      </c>
-      <c r="H2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="I2" t="n">
-        <v>343037.3048682529</v>
       </c>
       <c r="J2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="K2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="L2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="M2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="N2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="P2" t="n">
         <v>343037.3048682527</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912888</v>
+        <v>312214.8578912881</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972662</v>
+        <v>175413.4991972666</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.157354578</v>
+        <v>313577.1573545762</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.2687704302</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030157</v>
+        <v>72591.00846030147</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925528</v>
+        <v>43280.54279925537</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273103</v>
+        <v>81897.40371273052</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320235</v>
+        <v>49839.57413202388</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307132</v>
+        <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>194111.7371403471</v>
+        <v>194111.7371403472</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13501.38955219614</v>
+        <v>13501.3895521962</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184267</v>
+        <v>13606.8081118429</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184267</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184272</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="I4" t="n">
         <v>13606.8081118427</v>
@@ -26442,22 +26442,22 @@
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184262</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184268</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184273</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184272</v>
+        <v>13606.80811184271</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638299</v>
+        <v>79427.52208638296</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738573</v>
+        <v>85137.48506738558</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-576870.7991708517</v>
       </c>
       <c r="C6" t="n">
-        <v>-236811.3649256982</v>
+        <v>-236811.3649256978</v>
       </c>
       <c r="D6" t="n">
-        <v>-64563.75014272891</v>
+        <v>-64563.75014272907</v>
       </c>
       <c r="E6" t="n">
-        <v>-100865.6031575413</v>
+        <v>-101086.7344715145</v>
       </c>
       <c r="F6" t="n">
-        <v>38999.69816207446</v>
+        <v>38964.96023663692</v>
       </c>
       <c r="G6" t="n">
-        <v>228307.9669325029</v>
+        <v>228273.2290070672</v>
       </c>
       <c r="H6" t="n">
-        <v>228307.966932503</v>
+        <v>228273.2290070673</v>
       </c>
       <c r="I6" t="n">
-        <v>228307.966932503</v>
+        <v>228273.2290070672</v>
       </c>
       <c r="J6" t="n">
-        <v>179243.0222039584</v>
+        <v>179208.2842785227</v>
       </c>
       <c r="K6" t="n">
-        <v>155716.9584722012</v>
+        <v>155682.2205467658</v>
       </c>
       <c r="L6" t="n">
-        <v>185027.4241332475</v>
+        <v>184992.6862078118</v>
       </c>
       <c r="M6" t="n">
-        <v>146410.563219772</v>
+        <v>146375.8252943367</v>
       </c>
       <c r="N6" t="n">
-        <v>178468.3928004795</v>
+        <v>178433.6548750431</v>
       </c>
       <c r="O6" t="n">
-        <v>228307.966932503</v>
+        <v>228273.229007067</v>
       </c>
       <c r="P6" t="n">
-        <v>228307.9669325028</v>
+        <v>228273.2290070672</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074282991</v>
+        <v>791.2679074282988</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.241237214949</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>469.577001717863</v>
+        <v>469.5770017178626</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490099</v>
+        <v>969.220823949008</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153946</v>
+        <v>242.797966515394</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892402</v>
+        <v>142.7969846892405</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974119</v>
+        <v>268.1763450974101</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267245</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,43 +27009,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663201</v>
+      </c>
+      <c r="C4" t="n">
+        <v>282.0514145515426</v>
+      </c>
+      <c r="D4" t="n">
+        <v>171.0078303821762</v>
+      </c>
+      <c r="E4" t="n">
+        <v>328.6359918489692</v>
+      </c>
+      <c r="F4" t="n">
+        <v>203.4874641506406</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>187.5255871663198</v>
       </c>
-      <c r="C4" t="n">
-        <v>282.0514145515432</v>
-      </c>
-      <c r="D4" t="n">
-        <v>171.0078303821759</v>
-      </c>
-      <c r="E4" t="n">
-        <v>328.635991848971</v>
-      </c>
-      <c r="F4" t="n">
-        <v>203.4874641506387</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663196</v>
-      </c>
       <c r="K4" t="n">
-        <v>282.0514145515432</v>
+        <v>282.0514145515428</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821759</v>
+        <v>171.0078303821762</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489712</v>
+        <v>328.6359918489692</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.4874641506403</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515432</v>
+        <v>282.0514145515426</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821759</v>
+        <v>171.0078303821762</v>
       </c>
       <c r="M4" t="n">
-        <v>328.635991848971</v>
+        <v>328.6359918489692</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506387</v>
+        <v>203.4874641506406</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399022</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27433,16 +27433,16 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>117.3359015043864</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>215.923862646056</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681441</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310546</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>74.56217160488549</v>
+        <v>18.24739803715741</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>69.01503446809397</v>
       </c>
     </row>
     <row r="4">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>116.4139626313727</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917616</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378003</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713047</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>114.4038793034042</v>
+        <v>38.18406822271709</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>190.6985431065754</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.48198516406114</v>
+        <v>306.8976264094352</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094056</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.337723218882644</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>98.79199600452421</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841047</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224386</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0697787646034</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.3045852332498</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8294102072821</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.301668349831</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
         <v>149.5409427785072</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502782</v>
+        <v>113.1358328502783</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>46.05272555540029</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.241199726252</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>68.0941736780764</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>114.5456363768718</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>40.96929413310549</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>3.461313145861226</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,16 +28324,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.046611239150134e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.895933820848098e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.304053244491418e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-5.002220859751105e-12</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-2.177308744209098e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,13 +29560,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-1.832332906093958e-12</v>
       </c>
     </row>
     <row r="30">
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-2.177308744209098e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-8.367557058151089e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>-1.473871435806598e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274567</v>
+        <v>3.180976512274566</v>
       </c>
       <c r="H5" t="n">
         <v>32.57717570633191</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6345969894654</v>
+        <v>122.6345969894653</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9814052586638</v>
+        <v>269.9814052586636</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232462</v>
+        <v>404.6321410232461</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607691</v>
+        <v>501.981950960769</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109319</v>
+        <v>558.5516420109318</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264321</v>
+        <v>567.5895915264319</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325018</v>
+        <v>535.9587563325017</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4283986857234</v>
+        <v>457.4283986857233</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398903</v>
+        <v>343.5096773398902</v>
       </c>
       <c r="R5" t="n">
         <v>199.8170158391674</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345676</v>
+        <v>72.48650227345674</v>
       </c>
       <c r="T5" t="n">
         <v>13.92472468248192</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819653</v>
+        <v>0.2544781209819652</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,10 +31358,10 @@
         <v>1.701972480128794</v>
       </c>
       <c r="H6" t="n">
-        <v>16.43747105808599</v>
+        <v>16.43747105808598</v>
       </c>
       <c r="I6" t="n">
-        <v>58.59861389917121</v>
+        <v>58.5986138991712</v>
       </c>
       <c r="J6" t="n">
         <v>160.7990754142735</v>
@@ -31370,34 +31370,34 @@
         <v>274.8312315829027</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437542</v>
+        <v>369.5445071437541</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484229</v>
+        <v>431.2410095484228</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734972</v>
+        <v>442.6546758734971</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138013</v>
+        <v>404.9425488138012</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888046</v>
+        <v>325.0020957888045</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2552941301247</v>
+        <v>217.2552941301246</v>
       </c>
       <c r="R6" t="n">
         <v>105.6715895995755</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923438</v>
+        <v>31.61339233923437</v>
       </c>
       <c r="T6" t="n">
-        <v>6.86014346157176</v>
+        <v>6.860143461571758</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1119718736926839</v>
+        <v>0.1119718736926838</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4268765543789</v>
+        <v>1.426876554378899</v>
       </c>
       <c r="H7" t="n">
         <v>12.68622972893241</v>
       </c>
       <c r="I7" t="n">
-        <v>42.91006947168547</v>
+        <v>42.91006947168546</v>
       </c>
       <c r="J7" t="n">
         <v>100.8801723945882</v>
@@ -31458,25 +31458,25 @@
         <v>218.3510276350912</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589377</v>
+        <v>201.6825151589376</v>
       </c>
       <c r="P7" t="n">
-        <v>172.574233449608</v>
+        <v>172.5742334496079</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4814540216732</v>
+        <v>119.4814540216731</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689124</v>
+        <v>64.15755852689122</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131227</v>
+        <v>24.86656686131226</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709843</v>
+        <v>6.096654368709841</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884917</v>
+        <v>0.07782963023884915</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869146</v>
+        <v>4.83313060186914</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639241</v>
+        <v>49.49729877639234</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285605</v>
+        <v>186.3292675285602</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203918</v>
+        <v>410.2059184203913</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975129</v>
+        <v>614.7923367975121</v>
       </c>
       <c r="L11" t="n">
-        <v>762.704257454466</v>
+        <v>762.7042574544649</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954563</v>
+        <v>848.6554437954552</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180171</v>
+        <v>862.387576118016</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956808</v>
+        <v>814.3281336956796</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620361</v>
+        <v>695.0102219620352</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825971</v>
+        <v>521.9237322825965</v>
       </c>
       <c r="R11" t="n">
-        <v>303.599140169663</v>
+        <v>303.5991401696626</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900933</v>
+        <v>110.1349635900931</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1570292096822</v>
+        <v>21.15702920968217</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495316</v>
+        <v>0.3866504481495311</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858574</v>
+        <v>2.585952849858571</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837097</v>
+        <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469214</v>
+        <v>89.03390294469203</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193138</v>
+        <v>244.3158348193135</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598383</v>
+        <v>417.5746757598377</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747751</v>
+        <v>561.4806834747743</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821483</v>
+        <v>655.2214742821474</v>
       </c>
       <c r="N12" t="n">
-        <v>642.2453865038988</v>
+        <v>282.4162185798895</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924477</v>
+        <v>615.2639659924469</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.8035753383441</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047542</v>
+        <v>330.0946129047537</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627655</v>
+        <v>48.03293999627649</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868434</v>
+        <v>10.42320468868432</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643797</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092169</v>
+        <v>19.27527754092166</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798457</v>
+        <v>65.19695102798448</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085354</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329028</v>
+        <v>251.8793936329024</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100543</v>
+        <v>322.3189048100539</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770065</v>
+        <v>339.8400926770061</v>
       </c>
       <c r="N13" t="n">
-        <v>331.759454853103</v>
+        <v>331.7594548531026</v>
       </c>
       <c r="O13" t="n">
-        <v>306.433553380624</v>
+        <v>306.4335533806236</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493066</v>
+        <v>262.2068429493062</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194576</v>
+        <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811714</v>
+        <v>97.48008457811702</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493541</v>
+        <v>37.78190904493536</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377488</v>
+        <v>9.263170188377476</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473724</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,31 +32078,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32792,7 +32792,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
         <v>867.8464071162563</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -34211,13 +34211,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>99.08507489005527</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068223</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.93550073197747</v>
+        <v>88.93550073197736</v>
       </c>
       <c r="K5" t="n">
-        <v>184.5422899782657</v>
+        <v>184.5422899782656</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907819</v>
+        <v>266.2155359907817</v>
       </c>
       <c r="M5" t="n">
-        <v>328.2054087836592</v>
+        <v>328.2054087836591</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298411</v>
+        <v>338.176527929841</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108151</v>
+        <v>305.860544910815</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304538</v>
+        <v>226.1954029304537</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654409</v>
+        <v>121.2039874654407</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>144.6967833615269</v>
+        <v>33.96144874760677</v>
       </c>
       <c r="K6" t="n">
-        <v>136.9897926085437</v>
+        <v>253.2388826693954</v>
       </c>
       <c r="L6" t="n">
-        <v>230.99012736388</v>
+        <v>230.9901273638799</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1069756264046</v>
+        <v>289.1069756264045</v>
       </c>
       <c r="N6" t="n">
-        <v>311.312963790164</v>
+        <v>311.3129637901638</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693569</v>
+        <v>262.3463043693567</v>
       </c>
       <c r="P6" t="n">
         <v>191.0276883744743</v>
       </c>
       <c r="Q6" t="n">
-        <v>287.3508077799523</v>
+        <v>287.3508077799522</v>
       </c>
       <c r="R6" t="n">
-        <v>5.513755446932393</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,16 +35091,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.52099227791544</v>
+        <v>7.520992277915411</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828657</v>
+        <v>143.5076205828656</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813392</v>
+        <v>239.7276540813391</v>
       </c>
       <c r="M7" t="n">
-        <v>263.253262663253</v>
+        <v>263.2532626632529</v>
       </c>
       <c r="N7" t="n">
         <v>262.4832000143198</v>
@@ -35112,7 +35112,7 @@
         <v>169.8527927145014</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997877</v>
+        <v>33.31941076997873</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
@@ -35258,22 +35258,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>443.0068759113671</v>
       </c>
       <c r="Q9" t="n">
-        <v>302.9297349452399</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937055</v>
+        <v>229.160013893705</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525324</v>
+        <v>394.7024857525316</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844788</v>
+        <v>526.9378424844776</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681836</v>
+        <v>618.3092105681825</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214263</v>
+        <v>632.9745125214251</v>
       </c>
       <c r="O11" t="n">
-        <v>584.229922273994</v>
+        <v>584.2299222739929</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067666</v>
+        <v>463.7772262067656</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081476</v>
+        <v>299.6180424081469</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553091</v>
+        <v>88.01360235553051</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526471</v>
+        <v>117.4782081526468</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854793</v>
+        <v>279.7332367854787</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949009</v>
+        <v>422.9263036949001</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601299</v>
+        <v>513.087440360129</v>
       </c>
       <c r="N12" t="n">
-        <v>510.9036744205654</v>
+        <v>151.0745064965562</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480032</v>
+        <v>472.6677215480024</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.8291679240139</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187327</v>
+        <v>190.1128388187322</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186284</v>
+        <v>59.91672319186264</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070199</v>
+        <v>229.6099018070196</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703704</v>
+        <v>349.90893007037</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388471</v>
+        <v>379.4239696388466</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323316</v>
+        <v>375.8916272323312</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946637</v>
+        <v>331.0186812946633</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142001</v>
+        <v>259.4854022141997</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776323</v>
+        <v>95.37638356776297</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.7309431539454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,13 +36051,13 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.63177330662</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060466</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37400,7 +37400,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37874,13 +37874,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
